--- a/P2_Performer/Results/03-28-2023/Theresa Garibaldi - Santa Fe, New Mexico, United States of America.xlsx
+++ b/P2_Performer/Results/03-28-2023/Theresa Garibaldi - Santa Fe, New Mexico, United States of America.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-28-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7438A0D3-1D07-41B4-8025-18762546DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F774B1-FFE9-4C4E-B089-C5D88F3B4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3108" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
   </bookViews>
